--- a/biology/Médecine/Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle/Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle.xlsx
+++ b/biology/Médecine/Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle/Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_respiratoire_provoqu%C3%A9e_par_le_nickel_consid%C3%A9r%C3%A9e_comme_maladie_professionnelle</t>
+          <t>Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affection respiratoire provoquée par le nickel peut être reconnue comme maladie professionnelle dans certains pays, sous conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_respiratoire_provoqu%C3%A9e_par_le_nickel_consid%C3%A9r%C3%A9e_comme_maladie_professionnelle</t>
+          <t>Affection_respiratoire_provoquée_par_le_nickel_considérée_comme_maladie_professionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
